--- a/Labs/CalificacionesPolymer2019_EjerciciosProy.xlsx
+++ b/Labs/CalificacionesPolymer2019_EjerciciosProy.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="152">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -697,6 +697,9 @@
   </si>
   <si>
     <t>Calificacion Jorge</t>
+  </si>
+  <si>
+    <t>Promedio Final</t>
   </si>
 </sst>
 </file>
@@ -2720,13 +2723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V12"/>
+  <dimension ref="B1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2747,16 +2750,16 @@
     <col min="18" max="18" width="10.42578125" customWidth="1"/>
     <col min="19" max="19" width="30" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="35.42578125" customWidth="1"/>
+    <col min="21" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="P2" s="75" t="s">
         <v>126</v>
       </c>
@@ -2765,8 +2768,9 @@
       <c r="S2" s="76"/>
       <c r="T2" s="76"/>
       <c r="U2" s="76"/>
-    </row>
-    <row r="3" spans="2:22" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="2:23" ht="55.5" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>74</v>
       </c>
@@ -2827,11 +2831,14 @@
       <c r="U3" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="V3" s="62" t="s">
+      <c r="V3" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" s="62" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>83</v>
       </c>
@@ -2874,7 +2881,7 @@
       <c r="O4" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="85" t="s">
         <v>95</v>
       </c>
       <c r="Q4" s="78" t="s">
@@ -2889,12 +2896,18 @@
       <c r="T4" s="83">
         <v>9</v>
       </c>
-      <c r="U4" s="84"/>
-      <c r="V4" s="80" t="s">
+      <c r="U4" s="84">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V4" s="84">
+        <f>AVERAGE(T4:U4)</f>
+        <v>9.35</v>
+      </c>
+      <c r="W4" s="80" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>77</v>
       </c>
@@ -2937,7 +2950,7 @@
       <c r="O5" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="78" t="s">
+      <c r="P5" s="85" t="s">
         <v>95</v>
       </c>
       <c r="Q5" s="78" t="s">
@@ -2952,12 +2965,18 @@
       <c r="T5" s="83">
         <v>10</v>
       </c>
-      <c r="U5" s="84"/>
-      <c r="V5" s="80" t="s">
+      <c r="U5" s="84">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V5" s="84">
+        <f t="shared" ref="V5:V12" si="0">AVERAGE(T5:U5)</f>
+        <v>9.85</v>
+      </c>
+      <c r="W5" s="80" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="51" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>80</v>
       </c>
@@ -3015,12 +3034,18 @@
       <c r="T6" s="83">
         <v>9</v>
       </c>
-      <c r="U6" s="84"/>
-      <c r="V6" s="80" t="s">
+      <c r="U6" s="84">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V6" s="84">
+        <f t="shared" si="0"/>
+        <v>9.35</v>
+      </c>
+      <c r="W6" s="80" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="39" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>81</v>
       </c>
@@ -3078,12 +3103,18 @@
       <c r="T7" s="83">
         <v>10</v>
       </c>
-      <c r="U7" s="84"/>
-      <c r="V7" s="80" t="s">
+      <c r="U7" s="84">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V7" s="84">
+        <f t="shared" si="0"/>
+        <v>9.85</v>
+      </c>
+      <c r="W7" s="80" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B8" s="61" t="s">
         <v>84</v>
       </c>
@@ -3141,12 +3172,18 @@
       <c r="T8" s="83">
         <v>10</v>
       </c>
-      <c r="U8" s="84"/>
-      <c r="V8" s="80" t="s">
+      <c r="U8" s="84">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V8" s="84">
+        <f t="shared" si="0"/>
+        <v>9.85</v>
+      </c>
+      <c r="W8" s="80" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B9" s="61" t="s">
         <v>78</v>
       </c>
@@ -3204,12 +3241,18 @@
       <c r="T9" s="83">
         <v>10</v>
       </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="80" t="s">
+      <c r="U9" s="84">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V9" s="84">
+        <f t="shared" si="0"/>
+        <v>9.85</v>
+      </c>
+      <c r="W9" s="80" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>82</v>
       </c>
@@ -3252,7 +3295,7 @@
       <c r="O10" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="P10" s="78" t="s">
+      <c r="P10" s="85" t="s">
         <v>95</v>
       </c>
       <c r="Q10" s="78" t="s">
@@ -3267,12 +3310,18 @@
       <c r="T10" s="83">
         <v>9</v>
       </c>
-      <c r="U10" s="84"/>
-      <c r="V10" s="80" t="s">
+      <c r="U10" s="84">
+        <v>9.4</v>
+      </c>
+      <c r="V10" s="84">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="W10" s="80" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B11" s="61" t="s">
         <v>79</v>
       </c>
@@ -3330,12 +3379,18 @@
       <c r="T11" s="83">
         <v>10</v>
       </c>
-      <c r="U11" s="84"/>
-      <c r="V11" s="80" t="s">
+      <c r="U11" s="84">
+        <v>9.4</v>
+      </c>
+      <c r="V11" s="84">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W11" s="80" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>76</v>
       </c>
@@ -3393,8 +3448,14 @@
       <c r="T12" s="83">
         <v>10</v>
       </c>
-      <c r="U12" s="84"/>
-      <c r="V12" s="80" t="s">
+      <c r="U12" s="84">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V12" s="84">
+        <f t="shared" si="0"/>
+        <v>9.85</v>
+      </c>
+      <c r="W12" s="80" t="s">
         <v>130</v>
       </c>
     </row>
